--- a/realme/Others/Retail List/Realme Retail LIst.xlsx
+++ b/realme/Others/Retail List/Realme Retail LIst.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="182">
   <si>
     <t>BD101626</t>
   </si>
@@ -574,6 +574,9 @@
       </rPr>
       <t>ABC Commu:</t>
     </r>
+  </si>
+  <si>
+    <t>Moklesur Rahman Manik</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,17 +698,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,8 +1740,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I10:I11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1744,42 +1756,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1790,16 +1802,16 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1810,16 +1822,16 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1830,16 +1842,16 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1850,16 +1862,16 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1870,16 +1882,16 @@
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1890,16 +1902,16 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1910,16 +1922,16 @@
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1">
         <v>1727608308</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1930,16 +1942,16 @@
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="1">
         <v>1689614865</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1950,16 +1962,16 @@
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1970,16 +1982,16 @@
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1990,16 +2002,16 @@
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2010,16 +2022,16 @@
       <c r="B15" s="1">
         <v>341005752</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="1">
         <v>1733624262</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2030,16 +2042,16 @@
       <c r="B16" s="1">
         <v>341005751</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="1">
         <v>1722871513</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2050,16 +2062,16 @@
       <c r="B17" s="1">
         <v>341005750</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="1">
         <v>1791451762</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2070,16 +2082,16 @@
       <c r="B18" s="1">
         <v>341005749</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="1">
         <v>1713738327</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2090,16 +2102,16 @@
       <c r="B19" s="1">
         <v>341004590</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="11" t="s">
         <v>82</v>
       </c>
       <c r="E19" s="1">
         <v>1711427916</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2110,16 +2122,16 @@
       <c r="B20" s="1">
         <v>341004038</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="11" t="s">
         <v>166</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="11" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2130,16 +2142,16 @@
       <c r="B21" s="1">
         <v>341002648</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="11" t="s">
         <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2150,16 +2162,16 @@
       <c r="B22" s="1">
         <v>341002539</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E22" s="1">
         <v>1789726772</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2170,16 +2182,16 @@
       <c r="B23" s="1">
         <v>341002536</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="1">
         <v>1737495544</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2190,16 +2202,16 @@
       <c r="B24" s="1">
         <v>341002458</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="11" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2210,16 +2222,16 @@
       <c r="B25" s="1">
         <v>341002457</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="11" t="s">
         <v>159</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="11" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2230,16 +2242,16 @@
       <c r="B26" s="1">
         <v>341002455</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="11" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="1">
         <v>1729190349</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2250,16 +2262,16 @@
       <c r="B27" s="1">
         <v>341001680</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="11" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="1">
         <v>1749152530</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2270,16 +2282,16 @@
       <c r="B28" s="6">
         <v>341001677</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="12" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2290,16 +2302,16 @@
       <c r="B29" s="1">
         <v>341001676</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E29" s="1">
         <v>1717319664</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2310,16 +2322,16 @@
       <c r="B30" s="1">
         <v>341001674</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="11" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="1">
         <v>1711416599</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2330,16 +2342,16 @@
       <c r="B31" s="1">
         <v>341001668</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="11" t="s">
         <v>124</v>
       </c>
       <c r="E31" s="1">
         <v>1711074510</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2350,16 +2362,16 @@
       <c r="B32" s="1">
         <v>341001667</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E32" s="1">
         <v>1712151464</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2370,16 +2382,16 @@
       <c r="B33" s="1">
         <v>341000601</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="11" t="s">
         <v>136</v>
       </c>
       <c r="E33" s="1">
         <v>1716697790</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2390,16 +2402,16 @@
       <c r="B34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="11" t="s">
         <v>140</v>
       </c>
       <c r="E34" s="1">
         <v>1704724676</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2410,16 +2422,16 @@
       <c r="B35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="11" t="s">
         <v>144</v>
       </c>
       <c r="E35" s="1">
         <v>1717906020</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="11" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2430,16 +2442,16 @@
       <c r="B36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="11" t="s">
         <v>147</v>
       </c>
       <c r="E36" s="1">
         <v>1765002244</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2450,16 +2462,16 @@
       <c r="B37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="11" t="s">
         <v>150</v>
       </c>
       <c r="E37" s="1">
         <v>1712688979</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2470,16 +2482,16 @@
       <c r="B38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="11" t="s">
         <v>153</v>
       </c>
       <c r="E38" s="1">
         <v>1718911905</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2488,16 +2500,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2506,16 +2518,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <v>1713747899</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="13" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2524,12 +2536,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
+      <c r="D41" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1712362234</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>8</v>
       </c>
     </row>

--- a/realme/Others/Retail List/Realme Retail LIst.xlsx
+++ b/realme/Others/Retail List/Realme Retail LIst.xlsx
@@ -704,12 +704,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -718,6 +712,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1740,8 +1740,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,24 +1756,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="7" t="s">
@@ -1802,16 +1802,16 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1822,16 +1822,16 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1842,16 +1842,16 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1862,16 +1862,16 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1882,16 +1882,16 @@
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1902,16 +1902,16 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1922,16 +1922,16 @@
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1">
         <v>1727608308</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1942,16 +1942,16 @@
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="1">
         <v>1689614865</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1962,16 +1962,16 @@
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1982,16 +1982,16 @@
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2002,16 +2002,16 @@
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2022,16 +2022,16 @@
       <c r="B15" s="1">
         <v>341005752</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="1">
         <v>1733624262</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2042,16 +2042,16 @@
       <c r="B16" s="1">
         <v>341005751</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="1">
         <v>1722871513</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2062,16 +2062,16 @@
       <c r="B17" s="1">
         <v>341005750</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="1">
         <v>1791451762</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2082,16 +2082,16 @@
       <c r="B18" s="1">
         <v>341005749</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="1">
         <v>1713738327</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2102,16 +2102,16 @@
       <c r="B19" s="1">
         <v>341004590</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E19" s="1">
         <v>1711427916</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2122,16 +2122,16 @@
       <c r="B20" s="1">
         <v>341004038</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2142,16 +2142,16 @@
       <c r="B21" s="1">
         <v>341002648</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2162,16 +2162,16 @@
       <c r="B22" s="1">
         <v>341002539</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E22" s="1">
         <v>1789726772</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2182,16 +2182,16 @@
       <c r="B23" s="1">
         <v>341002536</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="1">
         <v>1737495544</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2202,16 +2202,16 @@
       <c r="B24" s="1">
         <v>341002458</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2222,16 +2222,16 @@
       <c r="B25" s="1">
         <v>341002457</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>159</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2242,16 +2242,16 @@
       <c r="B26" s="1">
         <v>341002455</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="1">
         <v>1729190349</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2262,16 +2262,16 @@
       <c r="B27" s="1">
         <v>341001680</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="1">
         <v>1749152530</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2282,16 +2282,16 @@
       <c r="B28" s="6">
         <v>341001677</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2302,16 +2302,16 @@
       <c r="B29" s="1">
         <v>341001676</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E29" s="1">
         <v>1717319664</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2322,16 +2322,16 @@
       <c r="B30" s="1">
         <v>341001674</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="1">
         <v>1711416599</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2342,16 +2342,16 @@
       <c r="B31" s="1">
         <v>341001668</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>124</v>
       </c>
       <c r="E31" s="1">
         <v>1711074510</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2362,16 +2362,16 @@
       <c r="B32" s="1">
         <v>341001667</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E32" s="1">
         <v>1712151464</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2382,16 +2382,16 @@
       <c r="B33" s="1">
         <v>341000601</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>136</v>
       </c>
       <c r="E33" s="1">
         <v>1716697790</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2402,16 +2402,16 @@
       <c r="B34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E34" s="1">
         <v>1704724676</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="9" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2422,16 +2422,16 @@
       <c r="B35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>144</v>
       </c>
       <c r="E35" s="1">
         <v>1717906020</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="9" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2442,16 +2442,16 @@
       <c r="B36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>147</v>
       </c>
       <c r="E36" s="1">
         <v>1765002244</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2462,16 +2462,16 @@
       <c r="B37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E37" s="1">
         <v>1712688979</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2482,16 +2482,16 @@
       <c r="B38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E38" s="1">
         <v>1718911905</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2500,16 +2500,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="11" t="s">
         <v>174</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2518,16 +2518,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>177</v>
       </c>
       <c r="E40" s="8">
         <v>1713747899</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2536,16 +2536,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E41" s="1">
         <v>1712362234</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="9" t="s">
         <v>8</v>
       </c>
     </row>

--- a/realme/Others/Retail List/Realme Retail LIst.xlsx
+++ b/realme/Others/Retail List/Realme Retail LIst.xlsx
@@ -15,7 +15,7 @@
     <sheet name="All " sheetId="2" r:id="rId1"/>
     <sheet name="Original" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -542,9 +542,6 @@
   </si>
   <si>
     <t>Bina Mobile</t>
-  </si>
-  <si>
-    <t> Md. Enamul Islam Bulton</t>
   </si>
   <si>
     <t>1723246584  </t>
@@ -577,6 +574,9 @@
   </si>
   <si>
     <t>Moklesur Rahman Manik</t>
+  </si>
+  <si>
+    <t>Md. Enamul Islam Bulton</t>
   </si>
 </sst>
 </file>
@@ -1738,10 +1738,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1755,7 +1755,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25">
+    <row r="1" spans="1:7" ht="23.25">
       <c r="A1" s="12" t="s">
         <v>168</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
         <v>169</v>
       </c>
@@ -1775,7 +1775,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="7" t="s">
         <v>172</v>
       </c>
@@ -1794,8 +1794,9 @@
       <c r="F3" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1814,8 +1815,9 @@
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1834,8 +1836,11 @@
       <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1854,8 +1859,9 @@
       <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1874,8 +1880,9 @@
       <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1894,8 +1901,9 @@
       <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1914,8 +1922,9 @@
       <c r="F9" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1934,8 +1943,9 @@
       <c r="F10" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1954,8 +1964,9 @@
       <c r="F11" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1974,8 +1985,11 @@
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1994,8 +2008,11 @@
       <c r="F13" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2014,8 +2031,11 @@
       <c r="F14" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2034,8 +2054,11 @@
       <c r="F15" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2054,8 +2077,11 @@
       <c r="F16" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2074,8 +2100,9 @@
       <c r="F17" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2094,8 +2121,9 @@
       <c r="F18" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2114,8 +2142,11 @@
       <c r="F19" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2134,8 +2165,11 @@
       <c r="F20" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2154,8 +2188,11 @@
       <c r="F21" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2174,8 +2211,9 @@
       <c r="F22" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2194,8 +2232,11 @@
       <c r="F23" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2214,8 +2255,9 @@
       <c r="F24" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2234,8 +2276,11 @@
       <c r="F25" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2254,8 +2299,11 @@
       <c r="F26" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2274,8 +2322,11 @@
       <c r="F27" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2294,8 +2345,11 @@
       <c r="F28" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2314,8 +2368,11 @@
       <c r="F29" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2334,8 +2391,9 @@
       <c r="F30" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2354,8 +2412,11 @@
       <c r="F31" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2363,7 +2424,7 @@
         <v>341001667</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>128</v>
@@ -2374,8 +2435,11 @@
       <c r="F32" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="F33" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2414,8 +2481,9 @@
       <c r="F34" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2434,8 +2502,11 @@
       <c r="F35" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2454,8 +2525,11 @@
       <c r="F36" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2474,8 +2548,11 @@
       <c r="F37" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2494,8 +2571,11 @@
       <c r="F38" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2504,49 +2584,62 @@
         <v>173</v>
       </c>
       <c r="D39" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="E40" s="8">
         <v>1713747899</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>178</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="1">
         <v>1712362234</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="G42" s="2">
+        <f>SUM(G3:G41)</f>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2556,7 +2649,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E4:E14 E28" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/realme/Others/Retail List/Realme Retail LIst.xlsx
+++ b/realme/Others/Retail List/Realme Retail LIst.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="184">
   <si>
     <t>BD101626</t>
   </si>
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t>Md. Enamul Islam Bulton</t>
+  </si>
+  <si>
+    <t>Rimi Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Robiul Islam </t>
   </si>
 </sst>
 </file>
@@ -638,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -670,13 +676,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,9 +720,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -718,6 +734,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1738,10 +1766,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1755,27 +1783,27 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="23.25">
+      <c r="A1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="7" t="s">
         <v>172</v>
       </c>
@@ -1794,855 +1822,783 @@
       <c r="F3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B4" s="1">
+        <v>341001680</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1749152530</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" s="6">
+        <v>341001677</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="B6" s="1">
+        <v>341001674</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1711416599</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
+      <c r="B7" s="1">
+        <v>341004038</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
+        <v>167</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="B8" s="1">
+        <v>341002536</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1737495544</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>33</v>
+      <c r="B10" s="1">
+        <v>341005750</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="1">
-        <v>1727608308</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1791451762</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>37</v>
+      <c r="B11" s="1">
+        <v>341005751</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E11" s="1">
-        <v>1689614865</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1722871513</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="B12" s="1">
+        <v>341005752</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1733624262</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="B13" s="1">
+        <v>341002455</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1729190349</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
-        <v>341005752</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1733624262</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
-        <v>341005751</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1722871513</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
-        <v>341005750</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>61</v>
+      <c r="B17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E17" s="1">
-        <v>1791451762</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+        <v>1717906020</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>341005749</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>65</v>
+        <v>341001667</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="E18" s="1">
-        <v>1713738327</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1712151464</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
-        <v>341004590</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>82</v>
+      <c r="B19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="E19" s="1">
-        <v>1711427916</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>1765002244</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
-        <v>341004038</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>166</v>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
-        <v>341002648</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>164</v>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>341002539</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>85</v>
+        <v>341001668</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="E22" s="1">
-        <v>1789726772</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
+        <v>1711074510</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
-        <v>341002536</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>88</v>
+      <c r="B23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="E23" s="1">
-        <v>1737495544</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>1712688979</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
-        <v>341002458</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1689614865</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
-        <v>341002457</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>159</v>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
-        <v>341002455</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1729190349</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>341001680</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>98</v>
+        <v>341002539</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E27" s="1">
-        <v>1749152530</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>1789726772</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="6">
-        <v>341001677</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="B28" s="1">
+        <v>341004590</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1711427916</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
-        <v>341001676</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>107</v>
+      <c r="B29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="E29" s="1">
-        <v>1717319664</v>
-      </c>
-      <c r="F29" s="9" t="s">
+        <v>1718911905</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>341001674</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1711416599</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
+        <v>341002457</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>341001668</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1711074510</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>341002458</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
-        <v>341001667</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>128</v>
+      <c r="B32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="E32" s="1">
-        <v>1712151464</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>1704724676</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>341000601</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>136</v>
+        <v>341005749</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E33" s="1">
-        <v>1716697790</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>1713738327</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1704724676</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>144</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E35" s="1">
-        <v>1717906020</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>1727608308</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1765002244</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="B36" s="1">
+        <v>341002648</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>150</v>
+      <c r="B37" s="1">
+        <v>341001676</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="E37" s="1">
-        <v>1712688979</v>
-      </c>
-      <c r="F37" s="9" t="s">
+        <v>1717319664</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>153</v>
+      <c r="B38" s="1">
+        <v>341000601</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="E38" s="1">
-        <v>1718911905</v>
-      </c>
-      <c r="F38" s="9" t="s">
+        <v>1716697790</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1">
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4">
         <v>37</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="15">
         <v>1713747899</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1">
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4">
         <v>38</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="4">
         <v>1712362234</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="G42" s="2">
-        <f>SUM(G3:G41)</f>
-        <v>55</v>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1727474835</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C4:G38">
+    <sortCondition ref="C4"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -2651,7 +2607,7 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E4:E14 E28" numberStoredAsText="1"/>
+    <ignoredError sqref="E5:E40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/realme/Others/Retail List/Realme Retail LIst.xlsx
+++ b/realme/Others/Retail List/Realme Retail LIst.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="All " sheetId="2" r:id="rId1"/>
     <sheet name="Original" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All '!$A$1:$E$42</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -695,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,9 +712,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,12 +729,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,6 +739,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,17 +1035,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1061,699 +1067,700 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>1727608308</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>1689614865</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>1733624262</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>1722871513</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>1791451762</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <v>1713738327</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>1711427916</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="13">
         <v>1789726772</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="7">
         <v>1737495544</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="7">
         <v>174897178</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="13">
         <v>177703337</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="7">
         <v>1729190349</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="7">
         <v>1749152530</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="7">
         <v>1717319664</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="13">
         <v>1748971798</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="7">
         <v>1711416599</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="13">
         <v>17711837557</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="13">
         <v>1744561188</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="7">
         <v>1711074510</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="7">
         <v>1712151464</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="13">
         <v>1712627820</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="7">
         <v>1716697790</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="7">
         <v>1704724676</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="7">
         <v>1717906020</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="7">
         <v>1765002244</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="7">
         <v>1712688979</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="7">
         <v>1718911905</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="7" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E42"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A13:A37 D2:D7 D28 D18:D20 D10:D12" numberStoredAsText="1"/>
@@ -1768,7 +1775,7 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -1784,42 +1791,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1830,16 +1837,16 @@
       <c r="B4" s="1">
         <v>341001680</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>98</v>
       </c>
       <c r="E4" s="1">
         <v>1749152530</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1847,19 +1854,19 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>341001677</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1870,16 +1877,16 @@
       <c r="B6" s="1">
         <v>341001674</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E6" s="1">
         <v>1711416599</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1890,16 +1897,16 @@
       <c r="B7" s="1">
         <v>341004038</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>166</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1910,16 +1917,16 @@
       <c r="B8" s="1">
         <v>341002536</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="1">
         <v>1737495544</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1930,16 +1937,16 @@
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1950,16 +1957,16 @@
       <c r="B10" s="1">
         <v>341005750</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="1">
         <v>1791451762</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1970,16 +1977,16 @@
       <c r="B11" s="1">
         <v>341005751</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="1">
         <v>1722871513</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1990,16 +1997,16 @@
       <c r="B12" s="1">
         <v>341005752</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="1">
         <v>1733624262</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2010,16 +2017,16 @@
       <c r="B13" s="1">
         <v>341002455</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>158</v>
       </c>
       <c r="E13" s="1">
         <v>1729190349</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2030,16 +2037,16 @@
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2050,16 +2057,16 @@
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2070,16 +2077,16 @@
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2090,16 +2097,16 @@
       <c r="B17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E17" s="1">
         <v>1717906020</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2110,16 +2117,16 @@
       <c r="B18" s="1">
         <v>341001667</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E18" s="1">
         <v>1712151464</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2130,16 +2137,16 @@
       <c r="B19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>147</v>
       </c>
       <c r="E19" s="1">
         <v>1765002244</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2150,16 +2157,16 @@
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2170,16 +2177,16 @@
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2190,16 +2197,16 @@
       <c r="B22" s="1">
         <v>341001668</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E22" s="1">
         <v>1711074510</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2210,16 +2217,16 @@
       <c r="B23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>150</v>
       </c>
       <c r="E23" s="1">
         <v>1712688979</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2230,16 +2237,16 @@
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="1">
         <v>1689614865</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2250,16 +2257,16 @@
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2270,16 +2277,16 @@
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2290,16 +2297,16 @@
       <c r="B27" s="1">
         <v>341002539</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>85</v>
       </c>
       <c r="E27" s="1">
         <v>1789726772</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2310,16 +2317,16 @@
       <c r="B28" s="1">
         <v>341004590</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="1">
         <v>1711427916</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2330,16 +2337,16 @@
       <c r="B29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>153</v>
       </c>
       <c r="E29" s="1">
         <v>1718911905</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2350,16 +2357,16 @@
       <c r="B30" s="1">
         <v>341002457</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>159</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2370,16 +2377,16 @@
       <c r="B31" s="1">
         <v>341002458</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2390,16 +2397,16 @@
       <c r="B32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>140</v>
       </c>
       <c r="E32" s="1">
         <v>1704724676</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2410,16 +2417,16 @@
       <c r="B33" s="1">
         <v>341005749</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="1">
         <v>1713738327</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2430,16 +2437,16 @@
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2450,16 +2457,16 @@
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="1">
         <v>1727608308</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2470,16 +2477,16 @@
       <c r="B36" s="1">
         <v>341002648</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>164</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2490,16 +2497,16 @@
       <c r="B37" s="1">
         <v>341001676</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E37" s="1">
         <v>1717319664</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2510,16 +2517,16 @@
       <c r="B38" s="1">
         <v>341000601</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E38" s="1">
         <v>1716697790</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2527,17 +2534,17 @@
       <c r="A39" s="4">
         <v>36</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2545,17 +2552,17 @@
       <c r="A40" s="4">
         <v>37</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="12">
         <v>1713747899</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="11" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2564,16 +2571,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="13" t="s">
         <v>180</v>
       </c>
       <c r="E41" s="4">
         <v>1712362234</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2582,16 +2589,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>183</v>
       </c>
       <c r="E42" s="4">
         <v>1727474835</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="13" t="s">
         <v>32</v>
       </c>
     </row>

--- a/realme/Others/Retail List/Realme Retail LIst.xlsx
+++ b/realme/Others/Retail List/Realme Retail LIst.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All " sheetId="2" r:id="rId1"/>
@@ -741,17 +741,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,17 +1035,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1396,8 +1396,8 @@
       <c r="B21" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="13" t="s">
         <v>77</v>
       </c>
@@ -1775,8 +1775,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1791,24 +1791,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="6" t="s">

--- a/realme/Others/Retail List/Realme Retail LIst.xlsx
+++ b/realme/Others/Retail List/Realme Retail LIst.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All " sheetId="2" r:id="rId1"/>
     <sheet name="Original" sheetId="3" r:id="rId2"/>
+    <sheet name="GRT" sheetId="5" r:id="rId3"/>
+    <sheet name="RSC" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All '!$A$1:$E$42</definedName>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="182">
   <si>
     <t>BD101626</t>
   </si>
@@ -527,12 +529,6 @@
   </si>
   <si>
     <t>1727836789  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mugdho Corporation </t>
-  </si>
-  <si>
-    <t>Abdullah Plaza, Komola Super Market, Alaipur, Natore</t>
   </si>
   <si>
     <t>1748971798  </t>
@@ -592,16 +588,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -647,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -665,15 +655,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -698,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -726,16 +707,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,12 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1773,10 +1748,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1790,815 +1765,795 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>154</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>341001680</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1749152530</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>341001677</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>341001680</v>
+        <v>341001674</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1">
-        <v>1749152530</v>
+        <v>1711416599</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>341001677</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>341004038</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>341001674</v>
+        <v>341002536</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1">
-        <v>1711416599</v>
+        <v>1737495544</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>341004038</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>341002536</v>
+        <v>341005750</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1">
-        <v>1737495544</v>
+        <v>1791451762</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>341005751</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1722871513</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>341005750</v>
+        <v>341005752</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1">
-        <v>1791451762</v>
+        <v>1733624262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>341005751</v>
+        <v>341002455</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E11" s="1">
-        <v>1722871513</v>
+        <v>1729190349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>341005752</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1733624262</v>
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>341002455</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1729190349</v>
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>144</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1717906020</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>341001667</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1712151464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E17" s="1">
-        <v>1717906020</v>
+        <v>1765002244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>341001667</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>179</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1712151464</v>
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1765002244</v>
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>341001668</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>124</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1711074510</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>150</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1712688979</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1">
-        <v>341001668</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1">
-        <v>1711074510</v>
+        <v>1689614865</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1712688979</v>
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1689614865</v>
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>341002539</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1789726772</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>341004590</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1711427916</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1">
-        <v>341002539</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="E27" s="1">
-        <v>1789726772</v>
+        <v>1718911905</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>341004590</v>
+        <v>341002457</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1711427916</v>
+        <v>159</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>341002458</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1718911905</v>
+        <v>91</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1">
-        <v>341002457</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1704724676</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>341002458</v>
+        <v>341005749</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>170</v>
+        <v>65</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1713738327</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1704724676</v>
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="1">
-        <v>341005749</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1">
-        <v>1713738327</v>
+        <v>1727608308</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>341002648</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>341001676</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="E35" s="1">
-        <v>1727608308</v>
+        <v>1717319664</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>341002648</v>
+        <v>341000601</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>165</v>
+        <v>136</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1716697790</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1">
-        <v>341001676</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1717319664</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1">
-        <v>341000601</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1716697790</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>104</v>
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1713747899</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4">
-        <v>36</v>
-      </c>
-      <c r="B39" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1712362234</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4">
-        <v>37</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="12">
-        <v>1713747899</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4">
-        <v>38</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="4">
-        <v>1712362234</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="D40" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="4">
         <v>1727474835</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F40" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2606,15 +2561,871 @@
   <sortState ref="C4:G38">
     <sortCondition ref="C4"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-  </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E5:E40" numberStoredAsText="1"/>
+    <ignoredError sqref="E3:E38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>341001677</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>341001674</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1711416599</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>341004038</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>341002536</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1737495544</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>341005750</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1791451762</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>341005751</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1722871513</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1717906020</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1765002244</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>341001668</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1711074510</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1712688979</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1689614865</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>341002539</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1789726772</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1718911905</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <v>341002457</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <v>341002458</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1704724676</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>341005749</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1713738327</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1727608308</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1">
+        <v>341001676</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1717319664</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
+        <v>36</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
+        <v>37</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1713747899</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4">
+        <v>38</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1712362234</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4">
+        <v>39</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1727474835</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>341001680</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1749152530</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>341005752</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1733624262</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>341002455</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1729190349</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>341001667</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1712151464</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>341004590</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1711427916</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>341002648</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>341000601</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1716697790</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/realme/Others/Retail List/Realme Retail LIst.xlsx
+++ b/realme/Others/Retail List/Realme Retail LIst.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All " sheetId="2" r:id="rId1"/>
@@ -611,7 +611,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,6 +633,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +732,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1750,8 +1762,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2126,22 +2138,22 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2563,7 +2575,7 @@
   </sortState>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E3:E38" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -3250,8 +3262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/realme/Others/Retail List/Realme Retail LIst.xlsx
+++ b/realme/Others/Retail List/Realme Retail LIst.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="All " sheetId="2" r:id="rId1"/>
     <sheet name="Original" sheetId="3" r:id="rId2"/>
-    <sheet name="GRT" sheetId="5" r:id="rId3"/>
-    <sheet name="RSC" sheetId="4" r:id="rId4"/>
+    <sheet name="Eid-Ul-Fitr Campaign" sheetId="6" r:id="rId3"/>
+    <sheet name="GRT" sheetId="5" r:id="rId4"/>
+    <sheet name="RSC" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All '!$A$1:$E$42</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="194">
   <si>
     <t>BD101626</t>
   </si>
@@ -583,12 +584,48 @@
   <si>
     <t xml:space="preserve">Md Robiul Islam </t>
   </si>
+  <si>
+    <t>Achivement QTY.</t>
+  </si>
+  <si>
+    <t>Achivement Percentage</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>RE Boishakhi Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RE SR Electronics </t>
+  </si>
+  <si>
+    <t>Total=</t>
+  </si>
+  <si>
+    <t>RE Zam Zam Multi Brand</t>
+  </si>
+  <si>
+    <t>Electronics Zone</t>
+  </si>
+  <si>
+    <t>Retailer Signature</t>
+  </si>
+  <si>
+    <t>Mugdho Corporation(Realme Distribution)</t>
+  </si>
+  <si>
+    <t>Eid-Ul-Fitr Eid Campaign(22 April To 22 May)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date: 18-07-2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -607,6 +644,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -643,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -679,13 +732,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +812,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1762,8 +1874,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2583,6 +2695,763 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.5">
+      <c r="A2" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5">
+      <c r="A3" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>341001680</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="1">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="23">
+        <v>4500</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>341001674</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="23">
+        <v>3000</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>341004038</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="23">
+        <v>4500</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>341002536</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="1">
+        <v>55</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F8" s="23">
+        <v>11313</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="23">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>341005750</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>341005751</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="23">
+        <v>2500</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>341005752</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1">
+        <v>103</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F12" s="23">
+        <v>23039</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>341002455</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="1">
+        <v>49</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F13" s="23">
+        <v>8893</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="23">
+        <v>2500</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1">
+        <v>49</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F15" s="23">
+        <v>8479</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>37</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F16" s="23">
+        <v>5685</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="23">
+        <v>4500</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>341001667</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="1">
+        <v>33</v>
+      </c>
+      <c r="E18" s="20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F18" s="23">
+        <v>6130</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="23">
+        <v>4500</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="23">
+        <v>2500</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>112</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F21" s="24">
+        <v>18557</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="1">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="23">
+        <v>4500</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="23">
+        <v>4500</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="23">
+        <v>3000</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="23">
+        <v>2500</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>341004590</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="1">
+        <v>34</v>
+      </c>
+      <c r="E26" s="20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F26" s="23">
+        <v>7113</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="1">
+        <v>32</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F27" s="23">
+        <v>6208</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>341002457</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="23">
+        <v>2500</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>341002458</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="1">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="23">
+        <v>4500</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="23">
+        <v>2500</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>341005749</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="23">
+        <v>4500</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="23">
+        <v>2500</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="23">
+        <v>2500</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>341002648</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="1">
+        <v>134</v>
+      </c>
+      <c r="E34" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F34" s="23">
+        <v>29711</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>341001676</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="1">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="23">
+        <v>3000</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>341000601</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="1">
+        <v>149</v>
+      </c>
+      <c r="E36" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F36" s="23">
+        <v>29256</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="19">
+        <v>37</v>
+      </c>
+      <c r="E37" s="22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F37" s="24">
+        <v>6239</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="19.5">
+      <c r="A38" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="26">
+        <f>SUM(F5:F37)</f>
+        <v>230623</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.2" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="84" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
@@ -3258,7 +4127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
